--- a/data/trans_orig/P19C02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>61945</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49577</v>
+        <v>48748</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77133</v>
+        <v>75320</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3234854458182715</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2588984771793048</v>
+        <v>0.2545662515488009</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4027955549214864</v>
+        <v>0.3933279150816636</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>65</v>
@@ -765,19 +765,19 @@
         <v>70323</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56907</v>
+        <v>56423</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>84119</v>
+        <v>84454</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3494781816130379</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2828071001845927</v>
+        <v>0.2804042009688994</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4180417059180141</v>
+        <v>0.4197077056610055</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>125</v>
@@ -786,19 +786,19 @@
         <v>132268</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114121</v>
+        <v>111401</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>154458</v>
+        <v>151842</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.336803783442914</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2905934632431988</v>
+        <v>0.2836683967827525</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3933062486513643</v>
+        <v>0.3866470810288354</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>129548</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114360</v>
+        <v>116173</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>141916</v>
+        <v>142745</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6765145541817285</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5972044450785136</v>
+        <v>0.6066720849183364</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7411015228206952</v>
+        <v>0.7454337484511993</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>126</v>
@@ -836,19 +836,19 @@
         <v>130899</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>117103</v>
+        <v>116768</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>144315</v>
+        <v>144799</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6505218183869621</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5819582940819867</v>
+        <v>0.5802922943389944</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7171928998154076</v>
+        <v>0.7195957990311006</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>257</v>
@@ -857,19 +857,19 @@
         <v>260448</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>238258</v>
+        <v>240874</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>278595</v>
+        <v>281315</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6631962165570859</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6066937513486358</v>
+        <v>0.6133529189711646</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7094065367568012</v>
+        <v>0.7163316032172475</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>105588</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>88634</v>
+        <v>86382</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124123</v>
+        <v>123333</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2576850581375588</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2163083231564728</v>
+        <v>0.2108127880902549</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3029198838321939</v>
+        <v>0.300991657773272</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>116</v>
@@ -982,19 +982,19 @@
         <v>117739</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>99356</v>
+        <v>99870</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>136147</v>
+        <v>136329</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2674543168598273</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2256953994565568</v>
+        <v>0.2268641158174588</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3092714802984977</v>
+        <v>0.3096831121970602</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>216</v>
@@ -1003,19 +1003,19 @@
         <v>223327</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>198971</v>
+        <v>198840</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>249442</v>
+        <v>252506</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2627447597161519</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2340903282450914</v>
+        <v>0.2339355624548841</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2934689039816282</v>
+        <v>0.2970738869867524</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>304168</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>285633</v>
+        <v>286423</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>321122</v>
+        <v>323374</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7423149418624412</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6970801161678063</v>
+        <v>0.6990083422267281</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7836916768435274</v>
+        <v>0.7891872119097457</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>321</v>
@@ -1053,19 +1053,19 @@
         <v>322481</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>304073</v>
+        <v>303891</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>340864</v>
+        <v>340350</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7325456831401727</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6907285197015025</v>
+        <v>0.6903168878029399</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7743046005434436</v>
+        <v>0.7731358841825413</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>605</v>
@@ -1074,19 +1074,19 @@
         <v>626650</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>600535</v>
+        <v>597471</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>651006</v>
+        <v>651137</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7372552402838481</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7065310960183718</v>
+        <v>0.7029261130132477</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7659096717549088</v>
+        <v>0.766064437545116</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>72087</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58323</v>
+        <v>58923</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87046</v>
+        <v>88005</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3047598033882873</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2465705106965756</v>
+        <v>0.2491085670070834</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3680018761046169</v>
+        <v>0.3720578750162891</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -1199,19 +1199,19 @@
         <v>74461</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61988</v>
+        <v>60970</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91388</v>
+        <v>89144</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2578219324103032</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2146339353174703</v>
+        <v>0.2111100476041396</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3164354270245492</v>
+        <v>0.3086643043453908</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>140</v>
@@ -1220,19 +1220,19 @@
         <v>146547</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>127177</v>
+        <v>126553</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>167830</v>
+        <v>169275</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2789558223059241</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2420832176266857</v>
+        <v>0.2408964870840579</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3194679925052463</v>
+        <v>0.3222188621675572</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>164450</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>149491</v>
+        <v>148532</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>178214</v>
+        <v>177614</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6952401966117127</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6319981238953831</v>
+        <v>0.6279421249837105</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7534294893034241</v>
+        <v>0.7508914329929166</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>216</v>
@@ -1270,19 +1270,19 @@
         <v>214345</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>197418</v>
+        <v>199662</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>226818</v>
+        <v>227836</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7421780675896968</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6835645729754507</v>
+        <v>0.6913356956546093</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7853660646825297</v>
+        <v>0.7888899523958603</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>379</v>
@@ -1291,19 +1291,19 @@
         <v>378796</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>357513</v>
+        <v>356068</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>398166</v>
+        <v>398790</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7210441776940759</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6805320074947536</v>
+        <v>0.6777811378324428</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7579167823733141</v>
+        <v>0.7591035129159421</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>79496</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66192</v>
+        <v>65566</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95461</v>
+        <v>96408</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2971453728220283</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2474189955400922</v>
+        <v>0.2450767746630954</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.356823171595909</v>
+        <v>0.3603621275007781</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -1416,19 +1416,19 @@
         <v>86118</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71319</v>
+        <v>71383</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102106</v>
+        <v>100810</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2875075805592766</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.238100210386327</v>
+        <v>0.2383118498508777</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3408843095415867</v>
+        <v>0.3365561510686892</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>163</v>
@@ -1437,19 +1437,19 @@
         <v>165614</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>144306</v>
+        <v>143323</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>188716</v>
+        <v>185964</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.292054516295974</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2544783079786367</v>
+        <v>0.2527447934766422</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3327937559992877</v>
+        <v>0.3279405966466445</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>188035</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>172070</v>
+        <v>171123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>201339</v>
+        <v>201965</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7028546271779716</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6431768284040906</v>
+        <v>0.639637872499222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7525810044599076</v>
+        <v>0.7549232253369048</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>220</v>
@@ -1487,19 +1487,19 @@
         <v>213416</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>197428</v>
+        <v>198724</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>228215</v>
+        <v>228151</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7124924194407235</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6591156904584133</v>
+        <v>0.6634438489313107</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7618997896136728</v>
+        <v>0.7616881501491222</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>413</v>
@@ -1508,19 +1508,19 @@
         <v>401451</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>378349</v>
+        <v>381101</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>422759</v>
+        <v>423742</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7079454837040261</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6672062440007124</v>
+        <v>0.6720594033533555</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7455216920213632</v>
+        <v>0.7472552065233578</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>35128</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25098</v>
+        <v>26059</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46320</v>
+        <v>46339</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2062974542917947</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1473966895788205</v>
+        <v>0.1530403786704631</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2720277621088266</v>
+        <v>0.2721372797270341</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -1633,19 +1633,19 @@
         <v>41965</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30719</v>
+        <v>32556</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53926</v>
+        <v>54891</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2413068408183683</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1766425227575673</v>
+        <v>0.1872059293664085</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.310089786454147</v>
+        <v>0.3156362259070468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -1654,19 +1654,19 @@
         <v>77093</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>63046</v>
+        <v>64014</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>92514</v>
+        <v>93082</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2239866540263127</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1831739962715444</v>
+        <v>0.1859890310132472</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2687911203927601</v>
+        <v>0.2704439787199571</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>135150</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>123958</v>
+        <v>123939</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>145180</v>
+        <v>144219</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7937025457082053</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7279722378911737</v>
+        <v>0.7278627202729659</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8526033104211798</v>
+        <v>0.8469596213295367</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>125</v>
@@ -1704,19 +1704,19 @@
         <v>131941</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>119980</v>
+        <v>119015</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>143187</v>
+        <v>141350</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7586931591816317</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6899102135458531</v>
+        <v>0.6843637740929533</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8233574772424327</v>
+        <v>0.8127940706335919</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>258</v>
@@ -1725,19 +1725,19 @@
         <v>267091</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>251670</v>
+        <v>251102</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>281138</v>
+        <v>280170</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7760133459736873</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7312088796072399</v>
+        <v>0.7295560212800428</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8168260037284555</v>
+        <v>0.8140109689867528</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>67082</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54101</v>
+        <v>54281</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>80518</v>
+        <v>81704</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3544269720917059</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2858377797943768</v>
+        <v>0.286791328028874</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4254115268686949</v>
+        <v>0.4316790711239428</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -1850,19 +1850,19 @@
         <v>67218</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54625</v>
+        <v>53906</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>81746</v>
+        <v>80994</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.330356507848119</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2684643215952526</v>
+        <v>0.2649336239101224</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4017550531919146</v>
+        <v>0.3980632652285953</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>131</v>
@@ -1871,19 +1871,19 @@
         <v>134300</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>117568</v>
+        <v>115743</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>153673</v>
+        <v>153229</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3419565529911795</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.299352862891572</v>
+        <v>0.2947058014285523</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3912821242984577</v>
+        <v>0.3901523885646861</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>122188</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>108752</v>
+        <v>107566</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>135169</v>
+        <v>134989</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6455730279082941</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5745884731313051</v>
+        <v>0.5683209288760575</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7141622202056235</v>
+        <v>0.7132086719711261</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>132</v>
@@ -1921,19 +1921,19 @@
         <v>136253</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>121725</v>
+        <v>122477</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>148846</v>
+        <v>149565</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.669643492151881</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5982449468080855</v>
+        <v>0.6019367347714047</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7315356784047474</v>
+        <v>0.7350663760898776</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>253</v>
@@ -1942,19 +1942,19 @@
         <v>258441</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>239068</v>
+        <v>239512</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>275173</v>
+        <v>276998</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6580434470088204</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6087178757015423</v>
+        <v>0.6098476114353139</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.700647137108428</v>
+        <v>0.7052941985714476</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>122835</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>105000</v>
+        <v>103140</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>143150</v>
+        <v>142763</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2645448298725497</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2261345855739053</v>
+        <v>0.2221293078291423</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3082975697025568</v>
+        <v>0.3074640618140897</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>132</v>
@@ -2067,19 +2067,19 @@
         <v>137907</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>117919</v>
+        <v>117787</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>159443</v>
+        <v>159049</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2556833208901196</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.218624337789671</v>
+        <v>0.2183793579492964</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2956111657787803</v>
+        <v>0.2948803608187694</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>249</v>
@@ -2088,19 +2088,19 @@
         <v>260742</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>233166</v>
+        <v>235050</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>290250</v>
+        <v>289781</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2597828015907018</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2323080406412223</v>
+        <v>0.2341849131918849</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2891823022675032</v>
+        <v>0.2887150753338755</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>341490</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>321175</v>
+        <v>321562</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>359325</v>
+        <v>361185</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7354551701274502</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6917024302974432</v>
+        <v>0.6925359381859103</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7738654144260947</v>
+        <v>0.7778706921708577</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>392</v>
@@ -2138,19 +2138,19 @@
         <v>401461</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>379925</v>
+        <v>380319</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>421449</v>
+        <v>421581</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7443166791098804</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7043888342212196</v>
+        <v>0.7051196391812307</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7813756622103289</v>
+        <v>0.7816206420507037</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>729</v>
@@ -2159,19 +2159,19 @@
         <v>742950</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>713442</v>
+        <v>713911</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>770526</v>
+        <v>768642</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7402171984092982</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7108176977324968</v>
+        <v>0.7112849246661244</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7676919593587777</v>
+        <v>0.7658150868081151</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>158282</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>137388</v>
+        <v>137397</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>180957</v>
+        <v>179538</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.301173096116475</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2614163285183909</v>
+        <v>0.2614328768324541</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3443172734646652</v>
+        <v>0.3416171442841777</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>194</v>
@@ -2284,19 +2284,19 @@
         <v>201155</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>178183</v>
+        <v>180049</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>223187</v>
+        <v>227686</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3400874101889843</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3012481814334349</v>
+        <v>0.3044036690733465</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3773355537560397</v>
+        <v>0.3849421127049772</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>350</v>
@@ -2305,19 +2305,19 @@
         <v>359437</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>327479</v>
+        <v>326530</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>390746</v>
+        <v>391955</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.321778650839736</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2931688764440905</v>
+        <v>0.2923196774524895</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3498074416502593</v>
+        <v>0.3508896817664041</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>367270</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>344595</v>
+        <v>346014</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>388164</v>
+        <v>388155</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.698826903883525</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6556827265353352</v>
+        <v>0.6583828557158222</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7385836714816093</v>
+        <v>0.7385671231675458</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>370</v>
@@ -2355,19 +2355,19 @@
         <v>390326</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>368294</v>
+        <v>363795</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>413298</v>
+        <v>411432</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6599125898110156</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6226644462439603</v>
+        <v>0.6150578872950229</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6987518185665651</v>
+        <v>0.6955963309266535</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>736</v>
@@ -2376,19 +2376,19 @@
         <v>757595</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>726286</v>
+        <v>725077</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>789553</v>
+        <v>790502</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.678221349160264</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6501925583497401</v>
+        <v>0.6491103182335959</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7068311235559088</v>
+        <v>0.7076803225475102</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>702443</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>657263</v>
+        <v>653268</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>748181</v>
+        <v>747524</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.286157556173239</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2677525109718834</v>
+        <v>0.2661250448433759</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3047898823876637</v>
+        <v>0.3045224584705804</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>774</v>
@@ -2501,19 +2501,19 @@
         <v>796886</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>751906</v>
+        <v>750213</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>842620</v>
+        <v>842921</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2910457493136153</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2746177180439938</v>
+        <v>0.2739993273582496</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3077489944745603</v>
+        <v>0.3078592766871914</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1453</v>
@@ -2522,19 +2522,19 @@
         <v>1499329</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1428846</v>
+        <v>1435999</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1563640</v>
+        <v>1565475</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2887349793938603</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2751616476731209</v>
+        <v>0.2765391479678251</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3011198085807689</v>
+        <v>0.3014732337399176</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1752299</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1706561</v>
+        <v>1707218</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1797479</v>
+        <v>1801474</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.713842443826761</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6952101176123363</v>
+        <v>0.6954775415294197</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7322474890281166</v>
+        <v>0.7338749551566242</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1902</v>
@@ -2572,19 +2572,19 @@
         <v>1941123</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1895389</v>
+        <v>1895088</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1986103</v>
+        <v>1987796</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7089542506863847</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6922510055254396</v>
+        <v>0.6921407233128085</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7253822819560062</v>
+        <v>0.7260006726417502</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3630</v>
@@ -2593,19 +2593,19 @@
         <v>3693421</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3629110</v>
+        <v>3627275</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3763904</v>
+        <v>3756751</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7112650206061397</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6988801914192303</v>
+        <v>0.6985267662600824</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7248383523268791</v>
+        <v>0.7234608520321749</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>62475</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49628</v>
+        <v>49199</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76822</v>
+        <v>77463</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2493426052431645</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1980687075077489</v>
+        <v>0.1963571567634856</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3066004697820936</v>
+        <v>0.3091581795824681</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -2962,19 +2962,19 @@
         <v>65495</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51144</v>
+        <v>51650</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80809</v>
+        <v>81295</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.260706900742619</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2035821801684128</v>
+        <v>0.2055959807280331</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3216657581640097</v>
+        <v>0.323601985427299</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>123</v>
@@ -2983,19 +2983,19 @@
         <v>127970</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>109284</v>
+        <v>109710</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>147530</v>
+        <v>148751</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.25503222116459</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2177934296660961</v>
+        <v>0.2186413001742533</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2940139868307566</v>
+        <v>0.2964473900983409</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>188085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>173738</v>
+        <v>173097</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>200932</v>
+        <v>201361</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7506573947568355</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6933995302179065</v>
+        <v>0.6908418204175319</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8019312924922511</v>
+        <v>0.8036428432365146</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>164</v>
@@ -3033,19 +3033,19 @@
         <v>185725</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>170411</v>
+        <v>169925</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>200076</v>
+        <v>199570</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.739293099257381</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6783342418359902</v>
+        <v>0.6763980145727011</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.796417819831587</v>
+        <v>0.7944040192719672</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>342</v>
@@ -3054,19 +3054,19 @@
         <v>373810</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>354250</v>
+        <v>353029</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>392496</v>
+        <v>392070</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.74496777883541</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7059860131692435</v>
+        <v>0.7035526099016591</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7822065703339039</v>
+        <v>0.781358699825747</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>94110</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76502</v>
+        <v>77865</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>112915</v>
+        <v>115757</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2322082696157124</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1887616688155285</v>
+        <v>0.1921255696086123</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2786091828046023</v>
+        <v>0.2856204770122008</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>111</v>
@@ -3179,19 +3179,19 @@
         <v>123117</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>103047</v>
+        <v>102785</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>144811</v>
+        <v>142634</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2812037840368224</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2353615234279736</v>
+        <v>0.2347627041488971</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3307531353259504</v>
+        <v>0.3257791908273416</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>199</v>
@@ -3200,19 +3200,19 @@
         <v>217227</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>190829</v>
+        <v>190763</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>243663</v>
+        <v>244455</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2576515662055903</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2263404861918814</v>
+        <v>0.2262627429811835</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2890067322659227</v>
+        <v>0.2899464807723743</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>311172</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>292367</v>
+        <v>289525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>328780</v>
+        <v>327417</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7677917303842875</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7213908171953978</v>
+        <v>0.7143795229877992</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8112383311844714</v>
+        <v>0.8078744303913876</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>291</v>
@@ -3250,19 +3250,19 @@
         <v>314706</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>293012</v>
+        <v>295189</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>334776</v>
+        <v>335038</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7187962159631776</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6692468646740495</v>
+        <v>0.6742208091726584</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7646384765720263</v>
+        <v>0.7652372958511028</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>584</v>
@@ -3271,19 +3271,19 @@
         <v>625878</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>599442</v>
+        <v>598650</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>652276</v>
+        <v>652342</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7423484337944097</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.710993267734077</v>
+        <v>0.7100535192276257</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7736595138081185</v>
+        <v>0.7737372570188163</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>70557</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57423</v>
+        <v>58239</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85406</v>
+        <v>86877</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2410777590926484</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1962013596068148</v>
+        <v>0.1989899441147567</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2918151304886845</v>
+        <v>0.2968408104490808</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -3396,19 +3396,19 @@
         <v>99789</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82142</v>
+        <v>83648</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116436</v>
+        <v>116503</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3035377759424222</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2498594008433837</v>
+        <v>0.2544406189219617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3541757344276983</v>
+        <v>0.3543798006652412</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>166</v>
@@ -3417,19 +3417,19 @@
         <v>170345</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>150041</v>
+        <v>148620</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>192931</v>
+        <v>196091</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2741209949573942</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2414464470882057</v>
+        <v>0.2391603618780101</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3104653351643747</v>
+        <v>0.3155504417734903</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>222115</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>207266</v>
+        <v>205795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>235249</v>
+        <v>234433</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7589222409073516</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7081848695113153</v>
+        <v>0.7031591895509197</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8037986403931852</v>
+        <v>0.8010100558852434</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>211</v>
@@ -3467,19 +3467,19 @@
         <v>228963</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>212316</v>
+        <v>212249</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>246610</v>
+        <v>245104</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6964622240575779</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6458242655723013</v>
+        <v>0.6456201993347581</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7501405991566162</v>
+        <v>0.7455593810780382</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>427</v>
@@ -3488,19 +3488,19 @@
         <v>451079</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>428493</v>
+        <v>425333</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>471383</v>
+        <v>472804</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7258790050426057</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6895346648356253</v>
+        <v>0.6844495582265098</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7585535529117942</v>
+        <v>0.7608396381219898</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>91985</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74995</v>
+        <v>75277</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>110064</v>
+        <v>109345</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.293810891246141</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2395420522338214</v>
+        <v>0.2404412954110927</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3515567080426339</v>
+        <v>0.3492600752551394</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>98</v>
@@ -3613,19 +3613,19 @@
         <v>103747</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>86005</v>
+        <v>87515</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122222</v>
+        <v>123739</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3026323108331382</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2508793371929785</v>
+        <v>0.2552829075162377</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3565249558605065</v>
+        <v>0.3609488612325501</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>181</v>
@@ -3634,19 +3634,19 @@
         <v>195732</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>171512</v>
+        <v>169132</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>221137</v>
+        <v>218866</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.298421579577145</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2614944280081597</v>
+        <v>0.2578655538779548</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3371551266432052</v>
+        <v>0.3336927834165792</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>221092</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>203013</v>
+        <v>203732</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>238082</v>
+        <v>237800</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7061891087538591</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6484432919573658</v>
+        <v>0.6507399247448605</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7604579477661787</v>
+        <v>0.7595587045889071</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>228</v>
@@ -3684,19 +3684,19 @@
         <v>239068</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>220593</v>
+        <v>219076</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>256810</v>
+        <v>255300</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6973676891668618</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6434750441394935</v>
+        <v>0.6390511387674499</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7491206628070215</v>
+        <v>0.7447170924837621</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>434</v>
@@ -3705,19 +3705,19 @@
         <v>460159</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>434754</v>
+        <v>437025</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>484379</v>
+        <v>486759</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.701578420422855</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6628448733567949</v>
+        <v>0.666307216583421</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7385055719918403</v>
+        <v>0.7421344461220454</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>43915</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32663</v>
+        <v>32600</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56207</v>
+        <v>57335</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2286535864350343</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1700670137343412</v>
+        <v>0.1697425188799681</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2926539820117087</v>
+        <v>0.2985277258506933</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -3830,19 +3830,19 @@
         <v>55258</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42969</v>
+        <v>42556</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68773</v>
+        <v>67725</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2839812673837857</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2208289930698807</v>
+        <v>0.218703670021941</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3534374465441604</v>
+        <v>0.3480546538985317</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>95</v>
@@ -3851,19 +3851,19 @@
         <v>99172</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>83078</v>
+        <v>81980</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>117002</v>
+        <v>116021</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.256497958502147</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2148724661519023</v>
+        <v>0.2120329558513877</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3026131742263764</v>
+        <v>0.3000746356746306</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>148143</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>135851</v>
+        <v>134723</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>159395</v>
+        <v>159458</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7713464135649657</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7073460179882914</v>
+        <v>0.7014722741493067</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8299329862656589</v>
+        <v>0.8302574811200323</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>133</v>
@@ -3901,19 +3901,19 @@
         <v>139324</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>125809</v>
+        <v>126857</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>151613</v>
+        <v>152026</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7160187326162143</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6465625534558395</v>
+        <v>0.6519453461014683</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.779171006930119</v>
+        <v>0.781296329978059</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>269</v>
@@ -3922,19 +3922,19 @@
         <v>287468</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>269638</v>
+        <v>270619</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>303562</v>
+        <v>304660</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.743502041497853</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6973868257736237</v>
+        <v>0.6999253643253696</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7851275338480977</v>
+        <v>0.7879670441486123</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>76691</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61691</v>
+        <v>62989</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>93430</v>
+        <v>93050</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3067953347873745</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2467919912623701</v>
+        <v>0.2519847054144596</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3737608515876439</v>
+        <v>0.3722418200586339</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>69</v>
@@ -4047,19 +4047,19 @@
         <v>70676</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>56491</v>
+        <v>56568</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>85532</v>
+        <v>86824</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2668749628571485</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2133110287319352</v>
+        <v>0.2135995073781</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3229679398683493</v>
+        <v>0.3278473145498033</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>139</v>
@@ -4068,19 +4068,19 @@
         <v>147367</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>127186</v>
+        <v>127364</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>170206</v>
+        <v>169464</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2862591192444651</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2470583881342337</v>
+        <v>0.2474029807095314</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3306239651027322</v>
+        <v>0.3291820607543062</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>173282</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>156543</v>
+        <v>156923</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>188282</v>
+        <v>186984</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6932046652126255</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6262391484123561</v>
+        <v>0.627758179941366</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7532080087376298</v>
+        <v>0.7480152945855403</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>185</v>
@@ -4118,19 +4118,19 @@
         <v>194154</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>179298</v>
+        <v>178006</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>208339</v>
+        <v>208262</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7331250371428515</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6770320601316508</v>
+        <v>0.672152685450197</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.786688971268065</v>
+        <v>0.7864004926218999</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>353</v>
@@ -4139,19 +4139,19 @@
         <v>367436</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>344597</v>
+        <v>345339</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>387617</v>
+        <v>387439</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7137408807555349</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6693760348972677</v>
+        <v>0.6708179392456937</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7529416118657664</v>
+        <v>0.7525970192904686</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>158498</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>136300</v>
+        <v>138111</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>181461</v>
+        <v>179902</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2760904634173579</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2374243239923695</v>
+        <v>0.2405782019327227</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3160914425211543</v>
+        <v>0.3133746973554103</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>184</v>
@@ -4264,19 +4264,19 @@
         <v>200558</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>176236</v>
+        <v>177180</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>226131</v>
+        <v>223723</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3203867287688936</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2815329747737269</v>
+        <v>0.2830410297362665</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3612385630892426</v>
+        <v>0.3573920664208194</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>333</v>
@@ -4285,19 +4285,19 @@
         <v>359055</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>325978</v>
+        <v>326022</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>392489</v>
+        <v>390286</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2991966020098394</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2716334009349893</v>
+        <v>0.2716705370045974</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3270562652237408</v>
+        <v>0.3252205978778681</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>415581</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>392618</v>
+        <v>394177</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>437779</v>
+        <v>435968</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7239095365826421</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6839085574788457</v>
+        <v>0.6866253026445897</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7625756760076305</v>
+        <v>0.7594217980672773</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>388</v>
@@ -4335,19 +4335,19 @@
         <v>425429</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>399856</v>
+        <v>402264</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>449751</v>
+        <v>448807</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6796132712311065</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6387614369107573</v>
+        <v>0.6426079335791806</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7184670252262731</v>
+        <v>0.7169589702637335</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>775</v>
@@ -4356,19 +4356,19 @@
         <v>841010</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>807576</v>
+        <v>809779</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>874087</v>
+        <v>874043</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7008033979901606</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6729437347762591</v>
+        <v>0.6747794021221316</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7283665990650106</v>
+        <v>0.7283294629954022</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>265631</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>239581</v>
+        <v>242435</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>290681</v>
+        <v>290459</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4190396929526549</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3779445165348353</v>
+        <v>0.3824475168344191</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.458556532107937</v>
+        <v>0.4582062630282174</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>242</v>
@@ -4481,19 +4481,19 @@
         <v>264496</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>238177</v>
+        <v>238217</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>292781</v>
+        <v>289676</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3766170466247281</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3391408901540035</v>
+        <v>0.3391982008672013</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4168924291470896</v>
+        <v>0.4124707727301947</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>491</v>
@@ -4502,19 +4502,19 @@
         <v>530127</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>494021</v>
+        <v>490373</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>563762</v>
+        <v>565365</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3967427329564242</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3697212434909466</v>
+        <v>0.3669907157411569</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4219143504612546</v>
+        <v>0.4231144026104718</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>368274</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>343224</v>
+        <v>343446</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>394324</v>
+        <v>391470</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.580960307047345</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5414434678920633</v>
+        <v>0.5417937369717827</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6220554834651647</v>
+        <v>0.6175524831655809</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>404</v>
@@ -4552,19 +4552,19 @@
         <v>437798</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>409513</v>
+        <v>412618</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>464117</v>
+        <v>464077</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6233829533752719</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5831075708529104</v>
+        <v>0.5875292272698054</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6608591098459966</v>
+        <v>0.6608017991327987</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>739</v>
@@ -4573,19 +4573,19 @@
         <v>806072</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>772437</v>
+        <v>770834</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>842178</v>
+        <v>845826</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6032572670435757</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5780856495387454</v>
+        <v>0.5768855973895282</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6302787565090533</v>
+        <v>0.6330092842588431</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>863862</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>814709</v>
+        <v>810508</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>912650</v>
+        <v>912228</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2966959201333336</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2798144152817445</v>
+        <v>0.2783713029326867</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3134524769298308</v>
+        <v>0.3133075343370686</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>913</v>
@@ -4698,19 +4698,19 @@
         <v>983135</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>929732</v>
+        <v>929947</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1034933</v>
+        <v>1032387</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3122748360207148</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2953121400022042</v>
+        <v>0.2953803912842574</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3287272208725144</v>
+        <v>0.32791853023361</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1727</v>
@@ -4719,19 +4719,19 @@
         <v>1846997</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1777719</v>
+        <v>1772144</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1922087</v>
+        <v>1916889</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3047896290246793</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2933573524743565</v>
+        <v>0.2924374082411958</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.317180932219856</v>
+        <v>0.3163231355211248</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2047744</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1998956</v>
+        <v>1999378</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2096897</v>
+        <v>2101098</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7033040798666664</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6865475230701693</v>
+        <v>0.6866924656629314</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7201855847182558</v>
+        <v>0.7216286970673133</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2004</v>
@@ -4769,19 +4769,19 @@
         <v>2165167</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2113369</v>
+        <v>2115915</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2218570</v>
+        <v>2218355</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6877251639792852</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6712727791274855</v>
+        <v>0.67208146976639</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7046878599977958</v>
+        <v>0.7046196087157426</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3923</v>
@@ -4790,19 +4790,19 @@
         <v>4212911</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4137821</v>
+        <v>4143019</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4282189</v>
+        <v>4287764</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6952103709753207</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.682819067780144</v>
+        <v>0.6836768644788751</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7066426475256435</v>
+        <v>0.7075625917588039</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>57675</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44220</v>
+        <v>45687</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72168</v>
+        <v>72681</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2351970965001305</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1803313389676024</v>
+        <v>0.1863106231316951</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2942995516635195</v>
+        <v>0.2963918470589464</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -5159,19 +5159,19 @@
         <v>63760</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51706</v>
+        <v>50504</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79515</v>
+        <v>79728</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2588357241726126</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2099026714845287</v>
+        <v>0.205021142624253</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3227928027725738</v>
+        <v>0.3236601123667224</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>115</v>
@@ -5180,19 +5180,19 @@
         <v>121434</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101228</v>
+        <v>101910</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>140508</v>
+        <v>141999</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2470432483003009</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2059359898905457</v>
+        <v>0.2073240626146995</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2858458030257607</v>
+        <v>0.2888802389392968</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>187543</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>173050</v>
+        <v>172537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>200998</v>
+        <v>199531</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7648029034998695</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7057004483364806</v>
+        <v>0.7036081529410536</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8196686610323977</v>
+        <v>0.8136893768683049</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>177</v>
@@ -5230,19 +5230,19 @@
         <v>182574</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>166819</v>
+        <v>166606</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>194628</v>
+        <v>195830</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7411642758273874</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6772071972274264</v>
+        <v>0.6763398876332779</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7900973285154714</v>
+        <v>0.7949788573757469</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>345</v>
@@ -5251,19 +5251,19 @@
         <v>370117</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>351043</v>
+        <v>349552</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>390323</v>
+        <v>389641</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7529567516996991</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7141541969742392</v>
+        <v>0.7111197610607032</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7940640101094544</v>
+        <v>0.7926759373853006</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>102720</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86954</v>
+        <v>86386</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>120758</v>
+        <v>121404</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2828469687829501</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2394341562157498</v>
+        <v>0.23787078110514</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3325160096884516</v>
+        <v>0.334293126028873</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -5376,19 +5376,19 @@
         <v>132682</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>114610</v>
+        <v>113853</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>151707</v>
+        <v>151721</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3373336249886438</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2913850651655427</v>
+        <v>0.2894605299886893</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.385702847454837</v>
+        <v>0.3857371671563649</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>225</v>
@@ -5397,19 +5397,19 @@
         <v>235403</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>210419</v>
+        <v>210338</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>264658</v>
+        <v>263557</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3111764935677476</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2781513881255353</v>
+        <v>0.2780442688907665</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3498485336327959</v>
+        <v>0.3483938662805435</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>260445</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>242407</v>
+        <v>241761</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>276211</v>
+        <v>276779</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7171530312170499</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6674839903115485</v>
+        <v>0.665706873971127</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7605658437842502</v>
+        <v>0.7621292188948601</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>244</v>
@@ -5447,19 +5447,19 @@
         <v>260645</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>241620</v>
+        <v>241606</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>278717</v>
+        <v>279474</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6626663750113562</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.614297152545163</v>
+        <v>0.6142628328436351</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7086149348344574</v>
+        <v>0.7105394700113107</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>489</v>
@@ -5468,19 +5468,19 @@
         <v>521089</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>491834</v>
+        <v>492935</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>546073</v>
+        <v>546154</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6888235064322524</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6501514663672041</v>
+        <v>0.6516061337194565</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7218486118744647</v>
+        <v>0.7219557311092336</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>66632</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53842</v>
+        <v>54089</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81037</v>
+        <v>80574</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2293644388400151</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1853366862689969</v>
+        <v>0.1861875732810311</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2789488055312447</v>
+        <v>0.2773555225003073</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>78</v>
@@ -5593,19 +5593,19 @@
         <v>77358</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>64860</v>
+        <v>62455</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94435</v>
+        <v>92824</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2513538153057532</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2107446580165852</v>
+        <v>0.2029328860433302</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.306841984801452</v>
+        <v>0.3016078582564901</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>148</v>
@@ -5614,19 +5614,19 @@
         <v>143989</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>125753</v>
+        <v>123602</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>165986</v>
+        <v>166353</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.240676274007589</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2101940659534538</v>
+        <v>0.2065986575650118</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2774431961587202</v>
+        <v>0.2780563575454531</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>223875</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>209470</v>
+        <v>209933</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>236665</v>
+        <v>236418</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.770635561159985</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7210511944687552</v>
+        <v>0.7226444774996927</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8146633137310031</v>
+        <v>0.8138124267189689</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>227</v>
@@ -5664,19 +5664,19 @@
         <v>230406</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>213329</v>
+        <v>214940</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>242904</v>
+        <v>245309</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7486461846942468</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6931580151985477</v>
+        <v>0.6983921417435098</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7892553419834133</v>
+        <v>0.7970671139566697</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>460</v>
@@ -5685,19 +5685,19 @@
         <v>454281</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>432284</v>
+        <v>431917</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>472517</v>
+        <v>474668</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7593237259924109</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.72255680384128</v>
+        <v>0.7219436424545469</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7898059340465463</v>
+        <v>0.7934013424349882</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>83201</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66555</v>
+        <v>68016</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98287</v>
+        <v>99395</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2520880945949994</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2016523507183986</v>
+        <v>0.2060787602749447</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.297796214439038</v>
+        <v>0.3011541113922173</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -5810,19 +5810,19 @@
         <v>87404</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71523</v>
+        <v>71268</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>103744</v>
+        <v>104001</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2505411070535914</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2050199671422362</v>
+        <v>0.2042868859505735</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2973794582975586</v>
+        <v>0.2981149904173451</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>162</v>
@@ -5831,19 +5831,19 @@
         <v>170605</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>148344</v>
+        <v>149493</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>194918</v>
+        <v>195571</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2512931660841732</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2185033145521478</v>
+        <v>0.2201969610590449</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2871045395519956</v>
+        <v>0.2880668664539217</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>246846</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>231760</v>
+        <v>230652</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>263492</v>
+        <v>262031</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7479119054050005</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7022037855609621</v>
+        <v>0.6988458886077829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7983476492816014</v>
+        <v>0.793921239725056</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>240</v>
@@ -5881,19 +5881,19 @@
         <v>261457</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>245117</v>
+        <v>244860</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>277338</v>
+        <v>277593</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7494588929464086</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7026205417024414</v>
+        <v>0.7018850095826548</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7949800328577639</v>
+        <v>0.7957131140494265</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>475</v>
@@ -5902,19 +5902,19 @@
         <v>508303</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>483990</v>
+        <v>483337</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>530564</v>
+        <v>529415</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7487068339158268</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7128954604480044</v>
+        <v>0.7119331335460781</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7814966854478522</v>
+        <v>0.7798030389409549</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>80643</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>68820</v>
+        <v>68615</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90130</v>
+        <v>89623</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6764063347970968</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5772459759492168</v>
+        <v>0.5755213790885831</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7559846392456279</v>
+        <v>0.7517348868956731</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>106</v>
@@ -6027,19 +6027,19 @@
         <v>100873</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>89125</v>
+        <v>88278</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>110437</v>
+        <v>110016</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6932856293706247</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6125428894532063</v>
+        <v>0.6067230341979042</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7590154502141733</v>
+        <v>0.7561243532153654</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>184</v>
@@ -6048,19 +6048,19 @@
         <v>181516</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>166976</v>
+        <v>166283</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>196923</v>
+        <v>196060</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6856837457344233</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6307593842671039</v>
+        <v>0.6281430074631881</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7438867881699006</v>
+        <v>0.7406256656339197</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>38579</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29092</v>
+        <v>29599</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50402</v>
+        <v>50607</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3235936652029032</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2440153607543721</v>
+        <v>0.2482651131043269</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4227540240507834</v>
+        <v>0.4244786209114169</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -6098,19 +6098,19 @@
         <v>44627</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35063</v>
+        <v>35484</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56375</v>
+        <v>57222</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3067143706293754</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2409845497858267</v>
+        <v>0.2438756467846345</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3874571105467939</v>
+        <v>0.3932769658020958</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>86</v>
@@ -6119,19 +6119,19 @@
         <v>83206</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>67799</v>
+        <v>68662</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>97746</v>
+        <v>98439</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3143162542655767</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2561132118300993</v>
+        <v>0.25937433436608</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3692406157328959</v>
+        <v>0.3718569925368103</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>54716</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42200</v>
+        <v>42336</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>68274</v>
+        <v>67930</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2342158546896277</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1806371340514216</v>
+        <v>0.1812222653319956</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2922519757510805</v>
+        <v>0.2907789795449827</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>76</v>
@@ -6244,19 +6244,19 @@
         <v>78177</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>63834</v>
+        <v>64787</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>95131</v>
+        <v>94118</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3163323063439113</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2582958179027715</v>
+        <v>0.2621514649075472</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.384933056375631</v>
+        <v>0.3808332017734943</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>130</v>
@@ -6265,19 +6265,19 @@
         <v>132894</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>112689</v>
+        <v>114648</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>152555</v>
+        <v>152431</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2764289087545134</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.234402049985204</v>
+        <v>0.2384762916130481</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3173251401276356</v>
+        <v>0.317067510353911</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>178899</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>165341</v>
+        <v>165685</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>191415</v>
+        <v>191279</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7657841453103723</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7077480242489196</v>
+        <v>0.7092210204550172</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8193628659485784</v>
+        <v>0.818777734668004</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>164</v>
@@ -6315,19 +6315,19 @@
         <v>168960</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>152006</v>
+        <v>153019</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>183303</v>
+        <v>182350</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6836676936560887</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6150669436243698</v>
+        <v>0.6191667982265069</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7417041820972288</v>
+        <v>0.7378485350924529</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>340</v>
@@ -6336,19 +6336,19 @@
         <v>347859</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>328198</v>
+        <v>328322</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>368064</v>
+        <v>366105</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7235710912454866</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6826748598723643</v>
+        <v>0.682932489646089</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7655979500147959</v>
+        <v>0.7615237083869518</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>143380</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>122151</v>
+        <v>123988</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>164501</v>
+        <v>165885</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.324165063608792</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2761669177035634</v>
+        <v>0.2803202019241369</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3719149723003546</v>
+        <v>0.3750459537494644</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>158</v>
@@ -6461,19 +6461,19 @@
         <v>166438</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>144752</v>
+        <v>144946</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>187586</v>
+        <v>188307</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3417268788966965</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2972001095382056</v>
+        <v>0.2976001665174395</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3851470002983222</v>
+        <v>0.3866262656637806</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>284</v>
@@ -6482,19 +6482,19 @@
         <v>309819</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>281269</v>
+        <v>279976</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>339215</v>
+        <v>341789</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3333687267739063</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3026485141935313</v>
+        <v>0.3012579445591345</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3649987641087846</v>
+        <v>0.3677689331649128</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>298927</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>277806</v>
+        <v>276422</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>320156</v>
+        <v>318319</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6758349363912081</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6280850276996452</v>
+        <v>0.6249540462505352</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7238330822964366</v>
+        <v>0.719679798075863</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>303</v>
@@ -6532,19 +6532,19 @@
         <v>320613</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>299465</v>
+        <v>298744</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>342299</v>
+        <v>342105</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6582731211033035</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6148529997016779</v>
+        <v>0.6133737343362194</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7027998904617944</v>
+        <v>0.7023998334825604</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>563</v>
@@ -6553,19 +6553,19 @@
         <v>619539</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>590143</v>
+        <v>587569</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>648089</v>
+        <v>649382</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6666312732260936</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6350012358912154</v>
+        <v>0.6322310668350872</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6973514858064688</v>
+        <v>0.6987420554408655</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>339484</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>313118</v>
+        <v>314780</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>364666</v>
+        <v>365918</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5302349471452479</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4890544768034831</v>
+        <v>0.4916495139625763</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5695657759003572</v>
+        <v>0.5715211824468389</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>331</v>
@@ -6678,19 +6678,19 @@
         <v>359580</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>331792</v>
+        <v>330213</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>386037</v>
+        <v>385007</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5201190231238185</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4799253806219473</v>
+        <v>0.477641066039088</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5583885000537908</v>
+        <v>0.5568987052099299</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>658</v>
@@ -6699,19 +6699,19 @@
         <v>699064</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>660214</v>
+        <v>663220</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>733770</v>
+        <v>733367</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5249829246052065</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4958078960989638</v>
+        <v>0.4980653824507261</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5510467693204826</v>
+        <v>0.5507441006351035</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>300768</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>275586</v>
+        <v>274334</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>327134</v>
+        <v>325472</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4697650528547521</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4304342240996425</v>
+        <v>0.428478817553161</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5109455231965169</v>
+        <v>0.5083504860374236</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>304</v>
@@ -6749,19 +6749,19 @@
         <v>331761</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>305304</v>
+        <v>306334</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>359549</v>
+        <v>361128</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4798809768761814</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4416114999462092</v>
+        <v>0.4431012947900701</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5200746193780528</v>
+        <v>0.522358933960912</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>593</v>
@@ -6770,19 +6770,19 @@
         <v>632529</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>597823</v>
+        <v>598226</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>671379</v>
+        <v>668373</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4750170753947935</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4489532306795174</v>
+        <v>0.4492558993648969</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.504192103901036</v>
+        <v>0.5019346175492738</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>928451</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>879663</v>
+        <v>883588</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>982319</v>
+        <v>981301</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3484740703217505</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3301625166294197</v>
+        <v>0.3316356184361788</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3686921277813537</v>
+        <v>0.3683103137927002</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1022</v>
@@ -6895,19 +6895,19 @@
         <v>1066273</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1015213</v>
+        <v>1012901</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1120433</v>
+        <v>1116537</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.37187151373609</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3540638477755765</v>
+        <v>0.3532576810720362</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3907604812116258</v>
+        <v>0.389401699298678</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1906</v>
@@ -6916,19 +6916,19 @@
         <v>1994724</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1926924</v>
+        <v>1918936</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2071473</v>
+        <v>2065306</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3606020723469251</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.348345396714963</v>
+        <v>0.3469013331659558</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3744766992365898</v>
+        <v>0.37336181333963</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>1735882</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1682014</v>
+        <v>1683032</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1784670</v>
+        <v>1780745</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6515259296782495</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6313078722186463</v>
+        <v>0.6316896862072997</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6698374833705804</v>
+        <v>0.6683643815638212</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1705</v>
@@ -6966,19 +6966,19 @@
         <v>1801042</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1746882</v>
+        <v>1750778</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1852102</v>
+        <v>1854414</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.62812848626391</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6092395187883742</v>
+        <v>0.610598300701322</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6459361522244235</v>
+        <v>0.6467423189279637</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3351</v>
@@ -6987,19 +6987,19 @@
         <v>3536924</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3460175</v>
+        <v>3466342</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3604724</v>
+        <v>3612712</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6393979276530749</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6255233007634102</v>
+        <v>0.6266381866603701</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6516546032850371</v>
+        <v>0.6530986668340443</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>141477</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>124726</v>
+        <v>124116</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>160846</v>
+        <v>160699</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4701514987556334</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4144855061918688</v>
+        <v>0.4124590503796263</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5345182876284547</v>
+        <v>0.5340311460117823</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>257</v>
@@ -7356,19 +7356,19 @@
         <v>147865</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>133697</v>
+        <v>132108</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>162546</v>
+        <v>162152</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.477811377257287</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4320275342603518</v>
+        <v>0.4268931302708805</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5252486427318255</v>
+        <v>0.5239780916106388</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>404</v>
@@ -7377,19 +7377,19 @@
         <v>289342</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>265380</v>
+        <v>266208</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>311763</v>
+        <v>310947</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.474035066395418</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4347784298276463</v>
+        <v>0.4361339033984731</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.510768089430098</v>
+        <v>0.5094306124518826</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>159440</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>140071</v>
+        <v>140218</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>176191</v>
+        <v>176801</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5298485012443668</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4654817123715453</v>
+        <v>0.4659688539882179</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5855144938081313</v>
+        <v>0.5875409496203737</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>274</v>
@@ -7427,19 +7427,19 @@
         <v>161599</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>146918</v>
+        <v>147312</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>175767</v>
+        <v>177356</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5221886227427129</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4747513572681745</v>
+        <v>0.4760219083893613</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5679724657396481</v>
+        <v>0.5731068697291195</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>444</v>
@@ -7448,19 +7448,19 @@
         <v>321039</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>298618</v>
+        <v>299434</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>345001</v>
+        <v>344173</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5259649336045821</v>
+        <v>0.5259649336045822</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.489231910569902</v>
+        <v>0.4905693875481175</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5652215701723536</v>
+        <v>0.563866096601527</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>190742</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>163767</v>
+        <v>161584</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>222107</v>
+        <v>217573</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3682088071179208</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3161353903914351</v>
+        <v>0.3119222582263843</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4287557373452601</v>
+        <v>0.4200023669354172</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>239</v>
@@ -7573,19 +7573,19 @@
         <v>187994</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>168227</v>
+        <v>168656</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>210404</v>
+        <v>209190</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3536309025379222</v>
+        <v>0.3536309025379221</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3164462850436012</v>
+        <v>0.3172547786565021</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3957854050111905</v>
+        <v>0.3935009485512536</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>365</v>
@@ -7594,19 +7594,19 @@
         <v>378737</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>345758</v>
+        <v>343474</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>418373</v>
+        <v>409997</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3608255282189242</v>
+        <v>0.3608255282189243</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3294063639676679</v>
+        <v>0.3272304826470513</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3985874327076002</v>
+        <v>0.3906076075587434</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>327286</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>295921</v>
+        <v>300455</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>354261</v>
+        <v>356444</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6317911928820792</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5712442626547394</v>
+        <v>0.5799976330645827</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6838646096085649</v>
+        <v>0.6880777417736159</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>457</v>
@@ -7644,19 +7644,19 @@
         <v>343618</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>321208</v>
+        <v>322422</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>363385</v>
+        <v>362956</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6463690974620779</v>
+        <v>0.6463690974620776</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6042145949888095</v>
+        <v>0.6064990514487467</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6835537149563987</v>
+        <v>0.6827452213434979</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>702</v>
@@ -7665,19 +7665,19 @@
         <v>670903</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>631267</v>
+        <v>639643</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>703882</v>
+        <v>706166</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6391744717810758</v>
+        <v>0.6391744717810759</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6014125672923996</v>
+        <v>0.6093923924412566</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6705936360323321</v>
+        <v>0.6727695173529488</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>69426</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56946</v>
+        <v>55559</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84994</v>
+        <v>83186</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2319558058118455</v>
+        <v>0.2319558058118454</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1902585976326562</v>
+        <v>0.1856231563960122</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2839658103543876</v>
+        <v>0.2779270296035163</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>131</v>
@@ -7790,19 +7790,19 @@
         <v>90507</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>76711</v>
+        <v>77916</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>104851</v>
+        <v>104666</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2648677192200096</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2244935481725169</v>
+        <v>0.2280214214013605</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3068475486310173</v>
+        <v>0.3063060276721851</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>204</v>
@@ -7811,19 +7811,19 @@
         <v>159933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>138882</v>
+        <v>141133</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>178768</v>
+        <v>179706</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2495001482636293</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2166600337588726</v>
+        <v>0.2201721406447527</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2788828803809048</v>
+        <v>0.2803470252248127</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>229883</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>214315</v>
+        <v>216123</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>242363</v>
+        <v>243750</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7680441941881547</v>
+        <v>0.7680441941881545</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7160341896456123</v>
+        <v>0.7220729703964835</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8097414023673439</v>
+        <v>0.8143768436039875</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>386</v>
@@ -7861,19 +7861,19 @@
         <v>251198</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>236854</v>
+        <v>237039</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>264994</v>
+        <v>263789</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7351322807799907</v>
+        <v>0.7351322807799906</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6931524513689828</v>
+        <v>0.6936939723278149</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.775506451827483</v>
+        <v>0.7719785785986394</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>657</v>
@@ -7882,19 +7882,19 @@
         <v>481080</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>462245</v>
+        <v>461307</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>502131</v>
+        <v>499880</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7504998517363707</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7211171196190951</v>
+        <v>0.7196529747751873</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7833399662411274</v>
+        <v>0.7798278593552473</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>185786</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>160325</v>
+        <v>162628</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>210207</v>
+        <v>211527</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5011244643727962</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4324492023267361</v>
+        <v>0.4386598459247882</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5669952130538433</v>
+        <v>0.570556238973262</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>263</v>
@@ -8007,19 +8007,19 @@
         <v>197614</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>178231</v>
+        <v>175963</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>216059</v>
+        <v>216600</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4709440471891852</v>
+        <v>0.4709440471891851</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4247507838289154</v>
+        <v>0.4193464135740251</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.514900310885529</v>
+        <v>0.5161895870669165</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>395</v>
@@ -8028,19 +8028,19 @@
         <v>383400</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>351897</v>
+        <v>351110</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>414160</v>
+        <v>414309</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4851010833794342</v>
+        <v>0.4851010833794343</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4452417536520203</v>
+        <v>0.4442461202544634</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5240205211282587</v>
+        <v>0.5242086064986732</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>184952</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>160531</v>
+        <v>159211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>210413</v>
+        <v>208110</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4988755356272039</v>
+        <v>0.498875535627204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4330047869461568</v>
+        <v>0.4294437610267374</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5675507976732639</v>
+        <v>0.5613401540752117</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>331</v>
@@ -8078,19 +8078,19 @@
         <v>221999</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>203554</v>
+        <v>203013</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>241382</v>
+        <v>243650</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5290559528108149</v>
+        <v>0.5290559528108147</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4850996891144712</v>
+        <v>0.4838104129330835</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5752492161710848</v>
+        <v>0.5806535864259748</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>487</v>
@@ -8099,19 +8099,19 @@
         <v>406951</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>376191</v>
+        <v>376042</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>438454</v>
+        <v>439241</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5148989166205656</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4759794788717412</v>
+        <v>0.4757913935013268</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5547582463479797</v>
+        <v>0.5557538797455365</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>162063</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>153630</v>
+        <v>153484</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>170015</v>
+        <v>169880</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8561239860167551</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8115709655888053</v>
+        <v>0.8108024460122011</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8981274754360116</v>
+        <v>0.897417736998211</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>419</v>
@@ -8224,19 +8224,19 @@
         <v>193369</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>185424</v>
+        <v>186135</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>199626</v>
+        <v>198911</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8797424431664774</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8435953427210343</v>
+        <v>0.8468322906660234</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9082097452219742</v>
+        <v>0.9049562966066443</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>642</v>
@@ -8245,19 +8245,19 @@
         <v>355433</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>344586</v>
+        <v>342891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>365618</v>
+        <v>364910</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.868813703460342</v>
+        <v>0.8688137034603418</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8422995110540911</v>
+        <v>0.8381571137574754</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8937113580648097</v>
+        <v>0.89198114239154</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>27236</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19284</v>
+        <v>19419</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35669</v>
+        <v>35815</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.143876013983245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1018725245639884</v>
+        <v>0.1025822630017888</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1884290344111947</v>
+        <v>0.1891975539877989</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>58</v>
@@ -8295,19 +8295,19 @@
         <v>26433</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20176</v>
+        <v>20891</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34378</v>
+        <v>33667</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1202575568335226</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09179025477802591</v>
+        <v>0.09504370339335579</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1564046572789655</v>
+        <v>0.1531677093339766</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>98</v>
@@ -8316,19 +8316,19 @@
         <v>53668</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>43483</v>
+        <v>44191</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64515</v>
+        <v>66210</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1311862965396581</v>
+        <v>0.131186296539658</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1062886419351901</v>
+        <v>0.1080188576084601</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1577004889459089</v>
+        <v>0.1618428862425248</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>44075</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33470</v>
+        <v>33597</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55461</v>
+        <v>55328</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1764862776281363</v>
+        <v>0.1764862776281362</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1340207423970939</v>
+        <v>0.1345296888179547</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2220789015119673</v>
+        <v>0.2215474479524981</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>76</v>
@@ -8441,19 +8441,19 @@
         <v>50045</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40232</v>
+        <v>40556</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60519</v>
+        <v>61522</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1989387809312857</v>
+        <v>0.1989387809312858</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1599303492614105</v>
+        <v>0.1612190103886315</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2405752985013232</v>
+        <v>0.2445612405086819</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>127</v>
@@ -8462,19 +8462,19 @@
         <v>94120</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>78522</v>
+        <v>79700</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>108928</v>
+        <v>110106</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1877533943852663</v>
+        <v>0.1877533943852662</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1566392962241906</v>
+        <v>0.1589877824035016</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2172929511462272</v>
+        <v>0.2196441660625996</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>205660</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194274</v>
+        <v>194407</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>216265</v>
+        <v>216138</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8235137223718638</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7779210984880327</v>
+        <v>0.7784525520475021</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8659792576029058</v>
+        <v>0.8654703111820455</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>364</v>
@@ -8512,19 +8512,19 @@
         <v>201515</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>191041</v>
+        <v>190038</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>211328</v>
+        <v>211004</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8010612190687142</v>
+        <v>0.8010612190687143</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.759424701498677</v>
+        <v>0.755438759491318</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8400696507385896</v>
+        <v>0.8387809896113684</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>657</v>
@@ -8533,19 +8533,19 @@
         <v>407174</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>392366</v>
+        <v>391188</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>422772</v>
+        <v>421594</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8122466056147337</v>
+        <v>0.8122466056147336</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7827070488537728</v>
+        <v>0.7803558339374005</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8433607037758094</v>
+        <v>0.8410122175964984</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>322414</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>291965</v>
+        <v>291924</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>354118</v>
+        <v>354120</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4614937328312504</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4179104252134004</v>
+        <v>0.4178521990623835</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.506874245308452</v>
+        <v>0.5068764446872014</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>426</v>
@@ -8658,19 +8658,19 @@
         <v>337285</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>312357</v>
+        <v>311455</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>364746</v>
+        <v>363230</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.454937841823973</v>
+        <v>0.4549378418239731</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4213143448443026</v>
+        <v>0.4200980429213176</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4919791006049362</v>
+        <v>0.4899336725491842</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>693</v>
@@ -8679,19 +8679,19 @@
         <v>659699</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>625710</v>
+        <v>619143</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>701238</v>
+        <v>695256</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.45811846290846</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4345156090067867</v>
+        <v>0.4299552048809791</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4869650335938042</v>
+        <v>0.4828104409260117</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>376217</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>344513</v>
+        <v>344511</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>406666</v>
+        <v>406707</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5385062671687497</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4931257546915478</v>
+        <v>0.4931235553127985</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5820895747865996</v>
+        <v>0.5821478009376165</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>497</v>
@@ -8729,19 +8729,19 @@
         <v>404101</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>376640</v>
+        <v>378156</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>429029</v>
+        <v>429931</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5450621581760269</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5080208993950635</v>
+        <v>0.5100663274508159</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5786856551556973</v>
+        <v>0.5799019570786822</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>812</v>
@@ -8750,19 +8750,19 @@
         <v>780319</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>738780</v>
+        <v>744762</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>814308</v>
+        <v>820875</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.54188153709154</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5130349664061957</v>
+        <v>0.5171895590739884</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5654843909932132</v>
+        <v>0.5700447951190208</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>486282</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>457851</v>
+        <v>460961</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>514339</v>
+        <v>513889</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6306750689789653</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5938013480106461</v>
+        <v>0.5978356288567735</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6670632356716407</v>
+        <v>0.6664800596188476</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>707</v>
@@ -8875,19 +8875,19 @@
         <v>558885</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>534477</v>
+        <v>534384</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>580826</v>
+        <v>583493</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.6897198452663966</v>
+        <v>0.6897198452663965</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6595984773195677</v>
+        <v>0.6594837844810904</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.716797908902822</v>
+        <v>0.7200890769672069</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1161</v>
@@ -8896,19 +8896,19 @@
         <v>1045167</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1008860</v>
+        <v>1008406</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1081935</v>
+        <v>1082320</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.660930350650396</v>
+        <v>0.6609303506503957</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6379709435314835</v>
+        <v>0.6376837725368945</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6841813983226055</v>
+        <v>0.6844248090286928</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>284768</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>256711</v>
+        <v>257161</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>313199</v>
+        <v>310089</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3693249310210346</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3329367643283594</v>
+        <v>0.3335199403811522</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4061986519893538</v>
+        <v>0.4021643711432261</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>332</v>
@@ -8946,19 +8946,19 @@
         <v>251422</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>229481</v>
+        <v>226814</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>275830</v>
+        <v>275923</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3102801547336035</v>
+        <v>0.3102801547336034</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.283202091097178</v>
+        <v>0.2799109230327932</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3404015226804322</v>
+        <v>0.3405162155189096</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>622</v>
@@ -8967,19 +8967,19 @@
         <v>536190</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>499422</v>
+        <v>499037</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>572497</v>
+        <v>572951</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3390696493496042</v>
+        <v>0.3390696493496041</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3158186016773947</v>
+        <v>0.3155751909713072</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3620290564685166</v>
+        <v>0.3623162274631056</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1602266</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1532421</v>
+        <v>1536278</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1662699</v>
+        <v>1669147</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.4715726327480701</v>
+        <v>0.47157263274807</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4510162393338584</v>
+        <v>0.4521513841531291</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4893591295586825</v>
+        <v>0.4912570417859246</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2518</v>
@@ -9092,19 +9092,19 @@
         <v>1763564</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1711344</v>
+        <v>1705492</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1815875</v>
+        <v>1814464</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.4864402435980973</v>
+        <v>0.4864402435980972</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4720364379870138</v>
+        <v>0.4704223073461752</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5008690912610059</v>
+        <v>0.5004800340746792</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3991</v>
@@ -9113,19 +9113,19 @@
         <v>3365829</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3286868</v>
+        <v>3280309</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3455665</v>
+        <v>3448101</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.4792474951632352</v>
+        <v>0.4792474951632351</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4680045221935678</v>
+        <v>0.4670705891539168</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4920387784287189</v>
+        <v>0.4909618351721852</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>1795441</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1735008</v>
+        <v>1728560</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1865286</v>
+        <v>1861429</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5284273672519298</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5106408704413173</v>
+        <v>0.5087429582140752</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5489837606661416</v>
+        <v>0.5478486158468708</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2699</v>
@@ -9163,19 +9163,19 @@
         <v>1861884</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1809573</v>
+        <v>1810984</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1914104</v>
+        <v>1919956</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5135597564019027</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4991309087389942</v>
+        <v>0.4995199659253208</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.527963562012986</v>
+        <v>0.5295776926538247</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4479</v>
@@ -9184,19 +9184,19 @@
         <v>3657326</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3567490</v>
+        <v>3575054</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3736287</v>
+        <v>3742846</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.5207525048367649</v>
+        <v>0.5207525048367648</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5079612215712811</v>
+        <v>0.5090381648278147</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5319954778064321</v>
+        <v>0.5329294108460831</v>
       </c>
     </row>
     <row r="30">
